--- a/public/docs/Exemplo_Importacao_Matriculas.xlsx
+++ b/public/docs/Exemplo_Importacao_Matriculas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atma\lms\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Atma\lms\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Teste 2</t>
-  </si>
-  <si>
-    <t>teste1@teste.com.br</t>
-  </si>
-  <si>
-    <t>Teste 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -47,7 +38,28 @@
     <t>phone</t>
   </si>
   <si>
-    <t>alexandre@atma.com.br</t>
+    <t>a@atma.com.br</t>
+  </si>
+  <si>
+    <t>b@atma.com.br</t>
+  </si>
+  <si>
+    <t>866.545.895-54</t>
+  </si>
+  <si>
+    <t>126.545.995-89</t>
+  </si>
+  <si>
+    <t>Teste A</t>
+  </si>
+  <si>
+    <t>Teste B</t>
+  </si>
+  <si>
+    <t>(55) 3199-84771</t>
+  </si>
+  <si>
+    <t>(31) 9999-99999</t>
   </si>
 </sst>
 </file>
@@ -397,51 +409,54 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>222222</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>111111</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,11 +466,7 @@
       <c r="G8" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>